--- a/Genie.xlsx
+++ b/Genie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>순위</t>
   </si>
@@ -40,141 +40,141 @@
     <t>잊을 수 있을까</t>
   </si>
   <si>
+    <t>abcdefu</t>
+  </si>
+  <si>
+    <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
+  </si>
+  <si>
     <t>호랑수월가</t>
   </si>
   <si>
-    <t>abcdefu</t>
-  </si>
-  <si>
-    <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
+    <t>ELEVEN</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면</t>
   </si>
   <si>
+    <t>리무진 (Feat. MINO) (Prod. by GRAY)</t>
+  </si>
+  <si>
+    <t>Step Back</t>
+  </si>
+  <si>
     <t>눈이 오잖아 (Feat. 헤이즈)</t>
   </si>
   <si>
-    <t>ELEVEN</t>
-  </si>
-  <si>
-    <t>리무진 (Feat. MINO) (Prod. by GRAY)</t>
-  </si>
-  <si>
-    <t>Step Back</t>
-  </si>
-  <si>
     <t>서랍</t>
   </si>
   <si>
+    <t>Counting Stars (Feat. Beenzino)</t>
+  </si>
+  <si>
+    <t>이제 나만 믿어요</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
     <t>strawberry moon</t>
   </si>
   <si>
+    <t>신호등</t>
+  </si>
+  <si>
+    <t>다시 사랑한다면 (김필 Ver.)</t>
+  </si>
+  <si>
+    <t>겨울잠</t>
+  </si>
+  <si>
+    <t>Can't Control Myself</t>
+  </si>
+  <si>
+    <t>Next Level</t>
+  </si>
+  <si>
+    <t>언제나 사랑해</t>
+  </si>
+  <si>
+    <t>잊었니</t>
+  </si>
+  <si>
     <t>그런 밤 (Some Nights)</t>
   </si>
   <si>
-    <t>이제 나만 믿어요</t>
-  </si>
-  <si>
-    <t>Counting Stars (Feat. Beenzino)</t>
-  </si>
-  <si>
-    <t>신호등</t>
-  </si>
-  <si>
-    <t>다시 사랑한다면 (김필 Ver.)</t>
-  </si>
-  <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>언제나 사랑해</t>
-  </si>
-  <si>
-    <t>겨울잠</t>
-  </si>
-  <si>
-    <t>Can't Control Myself</t>
-  </si>
-  <si>
     <t>별빛 같은 나의 사랑아</t>
   </si>
   <si>
-    <t>잊었니</t>
-  </si>
-  <si>
-    <t>Next Level</t>
-  </si>
-  <si>
     <t>그대라는 사치</t>
   </si>
   <si>
     <t>끝사랑</t>
   </si>
   <si>
+    <t>문득</t>
+  </si>
+  <si>
     <t>HERO</t>
   </si>
   <si>
+    <t>Dreams Come True</t>
+  </si>
+  <si>
+    <t>흰눈</t>
+  </si>
+  <si>
+    <t>만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. by TOIL)</t>
+  </si>
+  <si>
     <t>Bk Love</t>
   </si>
   <si>
-    <t>흰눈</t>
-  </si>
-  <si>
-    <t>만남은 쉽고 이별은 어려워 (Feat. Leellamarz) (Prod. by TOIL)</t>
-  </si>
-  <si>
-    <t>문득</t>
-  </si>
-  <si>
-    <t>Dreams Come True</t>
-  </si>
-  <si>
-    <t>어른아이 (Toddler)</t>
-  </si>
-  <si>
-    <t>Dilemma</t>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>우리가 헤어져야 했던 이유</t>
+  </si>
+  <si>
+    <t>OHAYO MY NIGHT</t>
+  </si>
+  <si>
+    <t>Savage</t>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>My Universe</t>
+  </si>
+  <si>
+    <t>너를 생각해</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>Tiny Riot</t>
+  </si>
+  <si>
+    <t>바라만 본다</t>
+  </si>
+  <si>
+    <t>SMILEY (Feat. BIBI)</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>Christmas Tree</t>
   </si>
   <si>
     <t>계단말고 엘리베이터</t>
   </si>
   <si>
-    <t>Bad Habits</t>
-  </si>
-  <si>
-    <t>OHAYO MY NIGHT</t>
-  </si>
-  <si>
-    <t>우리가 헤어져야 했던 이유</t>
-  </si>
-  <si>
-    <t>바라만 본다</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을 (2020)</t>
-  </si>
-  <si>
-    <t>Set Myself On Fire</t>
-  </si>
-  <si>
-    <t>My Universe</t>
-  </si>
-  <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>드라마</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>Permission to Dance</t>
-  </si>
-  <si>
     <t>태연 (TAEYEON)</t>
   </si>
   <si>
@@ -190,73 +190,82 @@
     <t>노을</t>
   </si>
   <si>
+    <t>GAYLE</t>
+  </si>
+  <si>
+    <t>sokodomo</t>
+  </si>
+  <si>
     <t>탑현</t>
   </si>
   <si>
-    <t>GAYLE</t>
-  </si>
-  <si>
-    <t>sokodomo</t>
+    <t>IVE (아이브)</t>
   </si>
   <si>
     <t>경서예지 &amp; 전건호</t>
   </si>
   <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>GOT the beat</t>
+  </si>
+  <si>
     <t>이무진</t>
   </si>
   <si>
-    <t>IVE (아이브)</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>GOT the beat</t>
-  </si>
-  <si>
     <t>10CM</t>
   </si>
   <si>
+    <t>The Kid LAROI &amp; Justin Bieber</t>
+  </si>
+  <si>
     <t>아이유 (IU)</t>
   </si>
   <si>
-    <t>The Kid LAROI &amp; Justin Bieber</t>
+    <t>aespa</t>
   </si>
   <si>
     <t>케이시 (Kassy)</t>
   </si>
   <si>
-    <t>aespa</t>
-  </si>
-  <si>
     <t>먼데이 키즈 (Monday Kiz)</t>
   </si>
   <si>
     <t>베이식</t>
   </si>
   <si>
-    <t>Apink (에이핑크)</t>
-  </si>
-  <si>
     <t>Ed Sheeran</t>
   </si>
   <si>
+    <t>비비 (BIBI)</t>
+  </si>
+  <si>
     <t>디핵 (D-Hack) &amp; PATEKO</t>
   </si>
   <si>
-    <t>비비 (BIBI)</t>
+    <t>방탄소년단</t>
+  </si>
+  <si>
+    <t>Coldplay &amp; 방탄소년단</t>
+  </si>
+  <si>
+    <t>주시크 (Joosiq)</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>Sam Ryder</t>
   </si>
   <si>
     <t>MSG워너비 (M.O.M)</t>
   </si>
   <si>
-    <t>방탄소년단</t>
-  </si>
-  <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>Coldplay &amp; 방탄소년단</t>
+    <t>YENA (최예나)</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -793,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -804,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -815,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -826,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -837,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -870,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -881,7 +890,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -892,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -914,7 +923,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -925,7 +934,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -958,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -980,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -991,7 +1000,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1002,7 +1011,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1013,7 +1022,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1024,7 +1033,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1035,7 +1044,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1046,7 +1055,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1057,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1068,7 +1077,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1123,7 +1132,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1134,7 +1143,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1145,7 +1154,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1156,7 +1165,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1167,7 +1176,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1178,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
